--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2026591.620670855</v>
+        <v>2088990.475847671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484437</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5750780.32616978</v>
+        <v>5753766.431476652</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827832</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.44160928113475</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>104.9316083298984</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>276.2941220218976</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>17.1878112703431</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>71.80950634292695</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>105.2507325501228</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.9405530688263</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>137.0658778563773</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602629</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6707771990719</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.500436494834</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>205.9320983586117</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8577999327487</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>135.1077460700515</v>
+        <v>115.634879813834</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>251.0418677784558</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>190.4707957071072</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>56.63677140718807</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800596</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598918</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>35.34780583513587</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>107.574226033415</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>166.5582003516157</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3433,10 +3433,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>248.6553364993909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480023347</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.97358346682176</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>212.6006968854788</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517359037</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>231.1360967980522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.6990987647611</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>18.22772027659556</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820283</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,13 +4138,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>61.23284287475814</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>39.8602230574175</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>454.3407911500111</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>420.2387223738385</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>388.3693415886871</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>358.6350007873863</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>437.71212146376</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.924403344921</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.924403344921</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.924403344921</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1708.068948755955</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1288.926485335266</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>880.6403616349189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>961.5628497245362</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.4973157021125</v>
+        <v>782.4162660260579</v>
       </c>
       <c r="C4" t="n">
-        <v>368.4973157021125</v>
+        <v>782.4162660260579</v>
       </c>
       <c r="D4" t="n">
-        <v>368.4973157021125</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="E4" t="n">
-        <v>368.4973157021125</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>368.4973157021125</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>738.646157019311</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1348.52211595026</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1768.191365176042</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2115.698259146383</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716087</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2103.231844014084</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1857.352397592539</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1578.919396845644</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1299.834425106354</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1027.808020692645</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>782.4162660260579</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>782.4162660260579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.461663861405</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1214.359595085233</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.490214300081</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.75587349878</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1274.966549965852</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1270.720830305909</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>195.1384727187784</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>195.1384727187784</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>195.1384727187784</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>195.1384727187784</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>195.1384727187784</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.1091603006143</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>566.5474487838393</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>428.0970671107308</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1403.739204372081</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1158.347449705493</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>930.9277790196015</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111519</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5179,25 +5179,25 @@
         <v>863.3302514665961</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681188</v>
+        <v>697.4522586681189</v>
       </c>
       <c r="E13" t="n">
-        <v>527.694254918856</v>
+        <v>527.6942549188561</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806122</v>
+        <v>350.9872008806124</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064399</v>
+        <v>185.39592590644</v>
       </c>
       <c r="H13" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,16 +5221,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2537.936920345011</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2537.936920345011</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.503919598115</v>
+        <v>2259.503919598116</v>
       </c>
       <c r="V13" t="n">
         <v>1972.548411468546</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.879170851551</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034975</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209419</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367714</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769221</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>374.786907400186</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
         <v>1253.783811891666</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112635</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457495</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036806</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336459</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111519</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>976.6306115230859</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0689000063113</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>804.0689000063113</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230859</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181337</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364761</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539205</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277504</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510143</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423057</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103061774</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516728</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953175</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523481</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315472</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252366</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125404</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442421</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376247</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787281</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366592</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666245</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137057</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137057</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137057</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137057</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137057</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137057</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.188226694566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.981559807927</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C19" t="n">
-        <v>916.4198482911521</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D19" t="n">
-        <v>750.5418554926748</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434121</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051684</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309961</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137057</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T19" t="n">
-        <v>2363.606846483674</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2085.17384573678</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V19" t="n">
-        <v>1798.218337607211</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W19" t="n">
-        <v>1526.191933193502</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.800178526915</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.800178526915</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,46 +5756,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127539</v>
       </c>
     </row>
     <row r="23">
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="29">
@@ -6540,22 +6540,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>863.1668995435757</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="32">
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6941,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1134.430677610026</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2291.478512820577</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257024</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.0206718702449</v>
+        <v>1176.997895781659</v>
       </c>
       <c r="C37" t="n">
-        <v>666.4589603534698</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>500.5809675549925</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8229638057298</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U37" t="n">
-        <v>2062.632628484989</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V37" t="n">
-        <v>1775.67712035542</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.650715941711</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.258961275124</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.839290589232</v>
+        <v>1368.816514500646</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1134.430677610026</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2291.478512820577</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769891</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785117</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>282.139148329249</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910052</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910052</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910052</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7363,19 +7363,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
         <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2336.308741984729</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>1898.166269168152</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1462.256484342597</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1028.481739500892</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369042</v>
+        <v>600.6143099100997</v>
       </c>
       <c r="G41" t="n">
-        <v>389.960412460168</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033842</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L41" t="n">
-        <v>213.752215763861</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974412</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410859</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981165</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814561</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773156</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526212</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710049</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855601</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172618</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096788</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.352246396441</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050126</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319663</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143118</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305242</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305242</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305242</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305242</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305242</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305242</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037196</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.811679917081</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C43" t="n">
-        <v>918.249968400306</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018287</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525658</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F43" t="n">
-        <v>405.906917814322</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401497</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663497</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731321</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309776</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.519262562882</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V43" t="n">
-        <v>1800.048457716364</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W43" t="n">
-        <v>1528.022053302656</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X43" t="n">
-        <v>1282.630298636068</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.630298636068</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168569</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351992</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847314</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939392</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G44" t="n">
-        <v>115.5646047172031</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L44" t="n">
-        <v>199.0316880464659</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M44" t="n">
-        <v>1356.079523257017</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693464</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.99017326377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097166</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.79883405576</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112636</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429653</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363479</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774513</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353823</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N45" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O45" t="n">
         <v>282.3408549543107</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040998</v>
+        <v>1071.767500933669</v>
       </c>
       <c r="C46" t="n">
-        <v>612.2502812873247</v>
+        <v>899.2057894168936</v>
       </c>
       <c r="D46" t="n">
-        <v>612.2502812873247</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E46" t="n">
-        <v>442.492277538062</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F46" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160655</v>
       </c>
       <c r="H46" t="n">
-        <v>96.7359766811152</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289275</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1736.397545005135</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208979</v>
+        <v>1491.005790338548</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230868</v>
+        <v>1263.586119652656</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>395.9942432157027</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>151.9112037879152</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791411</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069172412</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292168</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,7 +10838,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639766</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.3290013791421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>268.0111327346215</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.14457787892946</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>5.148518520149281</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>69.71657238081406</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.38105307846723</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.1445778789303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>32.95267764171859</v>
+        <v>52.42554389793608</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>178.395129614832</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-4.230675380126649e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52.94985625022204</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>219.0118993322376</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>52.01701577190538</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>56.36113619101562</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.277894049991632</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>26.99333424003481</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>84.63380825304806</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>184.78315617749</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311978805</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>52.94985625022167</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>120.4463752142717</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>184.7831561774889</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.0797604404438</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480247.7030730926</v>
+        <v>480247.7030730927</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480247.7030730927</v>
+        <v>480247.7030730925</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487024.465229011</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493737.9427745663</v>
+        <v>480247.7030730924</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480247.7030730927</v>
+        <v>480247.7030730926</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="E2" t="n">
         <v>404419.1183773411</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773412</v>
+        <v>404419.118377341</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560093</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26350,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>415779.3202312138</v>
+        <v>404419.118377341</v>
       </c>
       <c r="P2" t="n">
-        <v>404419.1183773412</v>
+        <v>404419.118377341</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>135599.3120662813</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440643</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073113</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687733</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319843</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58133.67384563474</v>
+        <v>33629.69638138945</v>
       </c>
       <c r="C6" t="n">
-        <v>200324.9745053446</v>
+        <v>210010.8901948592</v>
       </c>
       <c r="D6" t="n">
-        <v>200324.9745053447</v>
+        <v>241200.9251323184</v>
       </c>
       <c r="E6" t="n">
-        <v>95771.07195648739</v>
+        <v>168314.4602136136</v>
       </c>
       <c r="F6" t="n">
-        <v>330126.0939785249</v>
+        <v>330049.5354237279</v>
       </c>
       <c r="G6" t="n">
-        <v>328088.7100845749</v>
+        <v>324009.7440117593</v>
       </c>
       <c r="H6" t="n">
-        <v>330558.7413333417</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="I6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="J6" t="n">
-        <v>231947.0309683166</v>
+        <v>193546.6755482492</v>
       </c>
       <c r="K6" t="n">
-        <v>342961.4963133068</v>
+        <v>318091.3351899906</v>
       </c>
       <c r="L6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="M6" t="n">
-        <v>147360.317030239</v>
+        <v>207948.3273609206</v>
       </c>
       <c r="N6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="O6" t="n">
-        <v>338669.6691644081</v>
+        <v>330049.5354237279</v>
       </c>
       <c r="P6" t="n">
-        <v>330126.0939785249</v>
+        <v>330049.5354237279</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>104.2627093945167</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>131.424945574557</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.0037538945322</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>7.791831026376258</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>397.7632275161393</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.69364622360227</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>309.7003062363596</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.2627093945168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>27.15333501411519</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>395.9942432157027</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>151.9112037879152</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791411</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069172412</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645618</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292168</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,7 +37558,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37701,22 +37701,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639766</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,10 +38020,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.3290013791421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
